--- a/ProjectBaselineValues.xlsx
+++ b/ProjectBaselineValues.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Unique cookies to view page per day:</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>Total number of page views (calculated)</t>
+  </si>
+  <si>
+    <t>5000 cookies</t>
+  </si>
+  <si>
+    <t>UserIDs</t>
+  </si>
+  <si>
+    <t>Days</t>
   </si>
 </sst>
 </file>
@@ -555,7 +564,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -564,6 +573,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -906,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D24"/>
+  <dimension ref="B1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,11 +994,17 @@
         <v>0.10931250000000001</v>
       </c>
     </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10">
+        <f>5000/C1</f>
         <v>0.125</v>
       </c>
     </row>
@@ -1005,26 +1023,41 @@
       <c r="C12">
         <v>0.10929999999999999</v>
       </c>
+      <c r="D12">
+        <f>D3/5000</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>2.0000000000000001E-4</v>
       </c>
+      <c r="D13">
+        <f>(D12*(1-D12))/5000</f>
+        <v>3.2455500000000006E-6</v>
+      </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>1.5599999999999999E-2</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>SQRT(D13)</f>
+        <v>1.8015410070270398E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -1034,8 +1067,11 @@
       <c r="D18" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>11</v>
       </c>
@@ -1045,8 +1081,11 @@
       <c r="D19" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>16</v>
       </c>
@@ -1058,8 +1097,12 @@
         <f>C20*C6</f>
         <v>0.10931249999999999</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="4">
+        <f>C3/C1</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>17</v>
       </c>
@@ -1069,8 +1112,12 @@
       <c r="D21" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="4">
+        <f>50/C1</f>
+        <v>1.25E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>12</v>
       </c>
@@ -1080,8 +1127,11 @@
       <c r="D22" s="1">
         <v>27413</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4">
+        <v>164843</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>13</v>
       </c>
@@ -1093,8 +1143,12 @@
         <f>D22/0.08</f>
         <v>342662.5</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4">
+        <f>E22/C4</f>
+        <v>2060537.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>18</v>
       </c>
@@ -1105,6 +1159,24 @@
       <c r="D24" s="2">
         <f>D23/0.5</f>
         <v>685325</v>
+      </c>
+      <c r="E24" s="2">
+        <f>E23/0.5</f>
+        <v>4121075</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="4">
+        <v>17</v>
+      </c>
+      <c r="D25" s="4">
+        <v>18</v>
+      </c>
+      <c r="E25" s="4">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
